--- a/biology/Médecine/Robert_Kienböck/Robert_Kienböck.xlsx
+++ b/biology/Médecine/Robert_Kienböck/Robert_Kienböck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert_Kienb%C3%B6ck</t>
+          <t>Robert_Kienböck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Kienböck (né le 11 janvier 1871 à Vienne - mort le 8 septembre 1953 à Vienne) est un médecin radiologue autrichien.
 Il obtient son doctorat en 1895 à l'université de Vienne et passe l'année suivante à l'étranger (Londres et Paris). Il revient à Vienne en tant qu'assistant du Dr Leopold von Schrötter (1837 - 1908). C'est à ce moment-là qu'il commence à travailler dans le domaine de la radiologie. Quelques années plus tard, il prend la tête du service de radiologie de l'hôpital général de Vienne. En 1926, il devient professeur de radiologie.
